--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_14.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_14.xlsx
@@ -508,442 +508,442 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_14_7</t>
+          <t>model_1_14_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9984396797840782</v>
+        <v>0.9461769637700203</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8244177391475689</v>
+        <v>0.7156959238510718</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8061122712009596</v>
+        <v>0.7772306009734855</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9915933511700638</v>
+        <v>0.9372395043953072</v>
       </c>
       <c r="F2" t="n">
-        <v>0.006494874554382163</v>
+        <v>0.1727874037081303</v>
       </c>
       <c r="G2" t="n">
-        <v>1.174119386802178</v>
+        <v>1.901142666307782</v>
       </c>
       <c r="H2" t="n">
-        <v>0.693525163657712</v>
+        <v>0.7968332234059274</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02963129729119694</v>
+        <v>0.2619325627301488</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2356650393489135</v>
+        <v>1.182192422160937</v>
       </c>
       <c r="K2" t="n">
-        <v>0.08059078454998539</v>
+        <v>0.4156770425560333</v>
       </c>
       <c r="L2" t="n">
-        <v>1.099860493818994</v>
+        <v>0.9267090570485382</v>
       </c>
       <c r="M2" t="n">
-        <v>0.08186000884541898</v>
+        <v>0.4222235404516936</v>
       </c>
       <c r="N2" t="n">
-        <v>140.073483886458</v>
+        <v>37.51138664095349</v>
       </c>
       <c r="O2" t="n">
-        <v>281.4086564296744</v>
+        <v>74.47597022917931</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_14_3</t>
+          <t>model_1_14_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9984857990210992</v>
+        <v>0.9462171591732537</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8243849451368255</v>
+        <v>0.7156537091746604</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8054285031869093</v>
+        <v>0.7767598556104907</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9921300053087726</v>
+        <v>0.9368599638803737</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00630290199904462</v>
+        <v>0.1726583649200542</v>
       </c>
       <c r="G3" t="n">
-        <v>1.174338680503021</v>
+        <v>1.901424956043325</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6959709621968225</v>
+        <v>0.7985170522739756</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02773972805257145</v>
+        <v>0.2635165849527045</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2344209128952275</v>
+        <v>1.175523473049138</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07939081810288026</v>
+        <v>0.4155217983692964</v>
       </c>
       <c r="L3" t="n">
-        <v>1.096908862649649</v>
+        <v>0.9267637912146433</v>
       </c>
       <c r="M3" t="n">
-        <v>0.08064114412629832</v>
+        <v>0.4220658513242029</v>
       </c>
       <c r="N3" t="n">
-        <v>140.1334902337506</v>
+        <v>37.51288081232043</v>
       </c>
       <c r="O3" t="n">
-        <v>281.468662776967</v>
+        <v>74.47746440054624</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_14_4</t>
+          <t>model_1_14_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9984788742184966</v>
+        <v>0.9462548778574236</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8242259509667393</v>
+        <v>0.7156114309917917</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8050218744476503</v>
+        <v>0.7762887534706457</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9920351191066361</v>
+        <v>0.936474970987571</v>
       </c>
       <c r="F4" t="n">
-        <v>0.006331726674748394</v>
+        <v>0.1725372771114594</v>
       </c>
       <c r="G4" t="n">
-        <v>1.175401875250488</v>
+        <v>1.901707670446841</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6974254496194631</v>
+        <v>0.8002021573121292</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02807417776270198</v>
+        <v>0.2651233628162808</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2345346279069991</v>
+        <v>1.168853607735187</v>
       </c>
       <c r="K4" t="n">
-        <v>0.07957214760673734</v>
+        <v>0.4153760670903651</v>
       </c>
       <c r="L4" t="n">
-        <v>1.097352050016219</v>
+        <v>0.92681515282713</v>
       </c>
       <c r="M4" t="n">
-        <v>0.08082532938857813</v>
+        <v>0.4219178249233063</v>
       </c>
       <c r="N4" t="n">
-        <v>140.1243646072025</v>
+        <v>37.51428393331985</v>
       </c>
       <c r="O4" t="n">
-        <v>281.4595371504188</v>
+        <v>74.47886752154567</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_14_5</t>
+          <t>model_1_14_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.998481361260196</v>
+        <v>0.9462901130501358</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8241979825439705</v>
+        <v>0.7155692254449748</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8050567105195314</v>
+        <v>0.775817499796428</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9920306580284528</v>
+        <v>0.9360845029067851</v>
       </c>
       <c r="F5" t="n">
-        <v>0.006321374297278556</v>
+        <v>0.1724241620236762</v>
       </c>
       <c r="G5" t="n">
-        <v>1.175588900222327</v>
+        <v>1.901989899132745</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6973008430102557</v>
+        <v>0.801887804379948</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02808990192777204</v>
+        <v>0.2667529915194826</v>
       </c>
       <c r="J5" t="n">
-        <v>0.233967701426788</v>
+        <v>1.162179330652304</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07950707073763034</v>
+        <v>0.4152398849143423</v>
       </c>
       <c r="L5" t="n">
-        <v>1.097192879347453</v>
+        <v>0.9268631326640147</v>
       </c>
       <c r="M5" t="n">
-        <v>0.08075922762383572</v>
+        <v>0.4217794980141434</v>
       </c>
       <c r="N5" t="n">
-        <v>140.1276372847232</v>
+        <v>37.51559555924675</v>
       </c>
       <c r="O5" t="n">
-        <v>281.4628098279396</v>
+        <v>74.48017914747257</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_14_6</t>
+          <t>model_1_14_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9984704670310337</v>
+        <v>0.9463228631878893</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8241806191028214</v>
+        <v>0.7155270445075657</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8051853426424405</v>
+        <v>0.7753456665779561</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9919516863636028</v>
+        <v>0.9356877871938939</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00636672181700809</v>
+        <v>0.1723190246759923</v>
       </c>
       <c r="G6" t="n">
-        <v>1.175705009633242</v>
+        <v>1.902271963255425</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6968407333651292</v>
+        <v>0.8035755244439603</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02836825694486494</v>
+        <v>0.2684086948779684</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2347437812711999</v>
+        <v>1.155492957674414</v>
       </c>
       <c r="K6" t="n">
-        <v>0.07979174028060856</v>
+        <v>0.4151132672849572</v>
       </c>
       <c r="L6" t="n">
-        <v>1.097890110013843</v>
+        <v>0.9269077285962748</v>
       </c>
       <c r="M6" t="n">
-        <v>0.08104838042755069</v>
+        <v>0.4216508862836667</v>
       </c>
       <c r="N6" t="n">
-        <v>140.1133411405558</v>
+        <v>37.51681545109668</v>
       </c>
       <c r="O6" t="n">
-        <v>281.4485136837722</v>
+        <v>74.4813990393225</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_14_8</t>
+          <t>model_1_14_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9983397699938401</v>
+        <v>0.9463530837505092</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8241059774044496</v>
+        <v>0.7154849904366491</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8057449996296869</v>
+        <v>0.7748732768566817</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9907746203674825</v>
+        <v>0.9352847388608804</v>
       </c>
       <c r="F7" t="n">
-        <v>0.006910751723523501</v>
+        <v>0.1722220079909548</v>
       </c>
       <c r="G7" t="n">
-        <v>1.176204139013947</v>
+        <v>1.902553179021285</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6948388727725252</v>
+        <v>0.8052652350862286</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03251711496997938</v>
+        <v>0.2700908275914403</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2357533094870052</v>
+        <v>1.148795705343588</v>
       </c>
       <c r="K7" t="n">
-        <v>0.08313093120808585</v>
+        <v>0.4149963951541685</v>
       </c>
       <c r="L7" t="n">
-        <v>1.106254720394233</v>
+        <v>0.9269488800006934</v>
       </c>
       <c r="M7" t="n">
-        <v>0.08444016027416944</v>
+        <v>0.4215321735336474</v>
       </c>
       <c r="N7" t="n">
-        <v>139.9493537186895</v>
+        <v>37.51794178065865</v>
       </c>
       <c r="O7" t="n">
-        <v>281.284526261906</v>
+        <v>74.48252536888447</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_14_1</t>
+          <t>model_1_14_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9985245481093855</v>
+        <v>0.9463809143865017</v>
       </c>
       <c r="C8" t="n">
-        <v>0.824033833216092</v>
+        <v>0.7154431708538731</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8055941635095381</v>
+        <v>0.7744000106296327</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9926911664955509</v>
+        <v>0.934875070948018</v>
       </c>
       <c r="F8" t="n">
-        <v>0.006141607884575319</v>
+        <v>0.172132663656753</v>
       </c>
       <c r="G8" t="n">
-        <v>1.176686567533688</v>
+        <v>1.90283282676387</v>
       </c>
       <c r="H8" t="n">
-        <v>0.695378404828317</v>
+        <v>0.8069580809388305</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02576177770754273</v>
+        <v>0.2718005872937889</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2338456655643754</v>
+        <v>1.142074080731727</v>
       </c>
       <c r="K8" t="n">
-        <v>0.07836841126739344</v>
+        <v>0.4148887364785323</v>
       </c>
       <c r="L8" t="n">
-        <v>1.094428920999327</v>
+        <v>0.9269867770369385</v>
       </c>
       <c r="M8" t="n">
-        <v>0.07960263540518446</v>
+        <v>0.421422819341489</v>
       </c>
       <c r="N8" t="n">
-        <v>140.1853374013063</v>
+        <v>37.51897959827593</v>
       </c>
       <c r="O8" t="n">
-        <v>281.5205099445227</v>
+        <v>74.48356318650174</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_14_2</t>
+          <t>model_1_14_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9985472122141332</v>
+        <v>0.946406139102313</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8240261220743168</v>
+        <v>0.7154015447506643</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8055942407034811</v>
+        <v>0.7739259289517625</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9927703510627676</v>
+        <v>0.9344582217322392</v>
       </c>
       <c r="F9" t="n">
-        <v>0.006047267943503055</v>
+        <v>0.1720516850747258</v>
       </c>
       <c r="G9" t="n">
-        <v>1.176738131974245</v>
+        <v>1.903111180707697</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6953781287100588</v>
+        <v>0.8086538436117372</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02548267226379974</v>
+        <v>0.2735403183508652</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2317386931067009</v>
+        <v>1.135328540255579</v>
       </c>
       <c r="K9" t="n">
-        <v>0.07776418162305224</v>
+        <v>0.4147911342769102</v>
       </c>
       <c r="L9" t="n">
-        <v>1.092978418295473</v>
+        <v>0.9270211255861283</v>
       </c>
       <c r="M9" t="n">
-        <v>0.07898888974795293</v>
+        <v>0.4213236800027578</v>
       </c>
       <c r="N9" t="n">
-        <v>140.2162973770369</v>
+        <v>37.51992070537531</v>
       </c>
       <c r="O9" t="n">
-        <v>281.5514699202532</v>
+        <v>74.48450429360112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_14_0</t>
+          <t>model_1_14_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9985306363191691</v>
+        <v>0.9464288667866769</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8240221183230529</v>
+        <v>0.7153601904253859</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8058131715083547</v>
+        <v>0.7734512483303746</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9928958232515804</v>
+        <v>0.9340339681577885</v>
       </c>
       <c r="F10" t="n">
-        <v>0.006116265548815043</v>
+        <v>0.1719787226807654</v>
       </c>
       <c r="G10" t="n">
-        <v>1.176764905077383</v>
+        <v>1.903387717271253</v>
       </c>
       <c r="H10" t="n">
-        <v>0.694595025915363</v>
+        <v>0.8103517486708778</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0250404147360139</v>
+        <v>0.2753109516916734</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2329217481011095</v>
+        <v>1.128554221938121</v>
       </c>
       <c r="K10" t="n">
-        <v>0.07820655694259301</v>
+        <v>0.4147031741869905</v>
       </c>
       <c r="L10" t="n">
-        <v>1.094039275573181</v>
+        <v>0.9270520739222835</v>
       </c>
       <c r="M10" t="n">
-        <v>0.07943823203656339</v>
+        <v>0.4212343346293497</v>
       </c>
       <c r="N10" t="n">
-        <v>140.1936071463008</v>
+        <v>37.52076903033042</v>
       </c>
       <c r="O10" t="n">
-        <v>281.5287796895172</v>
+        <v>74.48535261855623</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9983472658941172</v>
+        <v>0.9464490083659152</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8239886545602466</v>
+        <v>0.7153191188052324</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8056970477675265</v>
+        <v>0.7729753987829384</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9908060072501033</v>
+        <v>0.9336018149331405</v>
       </c>
       <c r="F11" t="n">
-        <v>0.006879549838503077</v>
+        <v>0.1719140624269612</v>
       </c>
       <c r="G11" t="n">
-        <v>1.176988677413354</v>
+        <v>1.903662363384337</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6950103938030642</v>
+        <v>0.8120538349107151</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03240648419798053</v>
+        <v>0.2771145544282916</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2346563813077862</v>
+        <v>1.124334677569221</v>
       </c>
       <c r="K11" t="n">
-        <v>0.08294305177953773</v>
+        <v>0.4146252071774715</v>
       </c>
       <c r="L11" t="n">
-        <v>1.105774982776502</v>
+        <v>0.9270795007535866</v>
       </c>
       <c r="M11" t="n">
-        <v>0.08424932193243222</v>
+        <v>0.4211551397173692</v>
       </c>
       <c r="N11" t="n">
-        <v>139.9584041192554</v>
+        <v>37.52152112816284</v>
       </c>
       <c r="O11" t="n">
-        <v>281.2935766624718</v>
+        <v>74.48610471638865</v>
       </c>
     </row>
   </sheetData>
